--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AkshatKhanna\Desktop\Projects\Transport-Mail-Automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>ZONE</t>
   </si>
@@ -63,16 +58,57 @@
   </si>
   <si>
     <t>EMAIL</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>Chandu</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Shikhar</t>
+  </si>
+  <si>
+    <t>Chitwan</t>
+  </si>
+  <si>
+    <t>sample1@example.com</t>
+  </si>
+  <si>
+    <t>sample2@example.com</t>
+  </si>
+  <si>
+    <t>sample3@example.com</t>
+  </si>
+  <si>
+    <t>sample4@example.com</t>
+  </si>
+  <si>
+    <t>sample5@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,13 +131,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -160,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,7 +234,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,7 +411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -380,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,35 +484,35 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>11</v>
@@ -481,12 +520,159 @@
       <c r="L2">
         <v>12</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>102</v>
+      </c>
+      <c r="D3">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>103</v>
+      </c>
+      <c r="D4">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>104</v>
+      </c>
+      <c r="D5">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>105</v>
+      </c>
+      <c r="D6">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="M3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="M5" r:id="rId4"/>
+    <hyperlink ref="M6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AkshatKhanna\Desktop\Projects\Transport-Mail-Automation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>ZONE</t>
   </si>
@@ -57,9 +62,6 @@
     <t>TO_DATE</t>
   </si>
   <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
     <t>North</t>
   </si>
   <si>
@@ -76,21 +78,6 @@
   </si>
   <si>
     <t>Chitwan</t>
-  </si>
-  <si>
-    <t>sample1@example.com</t>
-  </si>
-  <si>
-    <t>sample2@example.com</t>
-  </si>
-  <si>
-    <t>sample3@example.com</t>
-  </si>
-  <si>
-    <t>sample4@example.com</t>
-  </si>
-  <si>
-    <t>sample5@example.com</t>
   </si>
 </sst>
 </file>
@@ -411,7 +398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,7 +409,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +426,7 @@
     <col min="10" max="10" width="25.44140625" customWidth="1"/>
     <col min="11" max="11" width="23.5546875" customWidth="1"/>
     <col min="12" max="12" width="18.21875" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" customWidth="1"/>
+    <col min="13" max="13" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -479,13 +466,10 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -497,7 +481,7 @@
         <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -520,13 +504,11 @@
       <c r="L2">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -538,7 +520,7 @@
         <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -555,13 +537,11 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -573,7 +553,7 @@
         <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -590,13 +570,11 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -608,7 +586,7 @@
         <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -625,13 +603,11 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -643,7 +619,7 @@
         <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -660,19 +636,10 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="M6" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="M3" r:id="rId2"/>
-    <hyperlink ref="M4" r:id="rId3"/>
-    <hyperlink ref="M5" r:id="rId4"/>
-    <hyperlink ref="M6" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>